--- a/server/src/main/resources/static/static/SampleTemplate.xlsx
+++ b/server/src/main/resources/static/static/SampleTemplate.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
-    <sheet name="模板" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
